--- a/docs/assets/snmpv3-parameters.xlsx
+++ b/docs/assets/snmpv3-parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amarin\Documents\GitHub\peperina\docs\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6CA2533-C322-4AB4-B003-7F66794B4D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0024E45-8174-4B8B-92F5-D5023FB56758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-9900" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{502D27A3-7DF7-4043-83BE-AA06AB132D07}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -52,6 +52,27 @@
   </si>
   <si>
     <t>Encryption key</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>MY_GROUP</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>SHA</t>
+  </si>
+  <si>
+    <t>AUTHKEY123</t>
+  </si>
+  <si>
+    <t>AES 256</t>
+  </si>
+  <si>
+    <t>PRIVKEY123</t>
   </si>
 </sst>
 </file>
@@ -403,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A636C1-12E8-41E4-A204-5B31869C6093}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,39 +436,60 @@
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
